--- a/readme/WiringDiagram.xlsx
+++ b/readme/WiringDiagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\pi\src\VoltageCatcher\Readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0B6506F-06FB-4DB1-9FA2-C6DD4A66E5CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447C0196-4C65-4F7E-9BD6-4E2A978A0BB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25380" yWindow="4740" windowWidth="22395" windowHeight="14145" xr2:uid="{5B5A548B-1E25-4052-909E-765B67E2A8C9}"/>
+    <workbookView xWindow="-47925" yWindow="5295" windowWidth="22395" windowHeight="14145" xr2:uid="{5B5A548B-1E25-4052-909E-765B67E2A8C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -526,18 +526,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,9 +534,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -573,62 +558,77 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -951,521 +951,523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E27D12-3647-4886-A042-51E674BD5053}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="B1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="A1:L21"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="30"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="30"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35" t="s">
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="K2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="38" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="66" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="C3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="D3" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="E3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="F3" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="G3" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="H3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="I3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="J3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="K3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="L3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="48"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="M3" s="67"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50">
+      <c r="C4" s="44">
         <v>14</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="D4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="E4" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="29">
+      <c r="F4" s="45"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="29">
         <v>6</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="I4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="K4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="L4" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="54" t="s">
+      <c r="M4" s="48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="25">
+      <c r="C5" s="25">
         <v>9</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="28">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="28">
         <v>6</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="56"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="50"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="50">
+      <c r="C6" s="44">
         <v>16</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="D6" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="29">
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="29">
         <v>2</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="I6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="54"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="48"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="25">
+      <c r="C7" s="25">
         <v>15</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="D7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="28">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="28">
         <v>2</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="56"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="57" t="s">
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="50"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="F8" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="29">
+      <c r="G8" s="13"/>
+      <c r="H8" s="29">
         <v>1</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="I8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="J8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="K8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="54"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="19" t="s">
+      <c r="L8" s="11"/>
+      <c r="M8" s="48"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="49"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="28">
+      <c r="G9" s="4"/>
+      <c r="H9" s="28">
         <v>1</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="56"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="50"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="18">
+      <c r="C10" s="18">
         <v>11</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="D10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="20" t="s">
+      <c r="E10" s="22"/>
+      <c r="F10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="29">
+      <c r="G10" s="13"/>
+      <c r="H10" s="29">
         <v>19</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="I10" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="J10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="54"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="K10" s="16"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="48"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="18">
+      <c r="C11" s="18">
         <v>12</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="D11" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="20" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="29">
+      <c r="G11" s="13"/>
+      <c r="H11" s="29">
         <v>21</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="I11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="54"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="48"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="18">
+      <c r="C12" s="18">
         <v>13</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="20" t="s">
+      <c r="E12" s="22"/>
+      <c r="F12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="29">
+      <c r="G12" s="13"/>
+      <c r="H12" s="29">
         <v>23</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="I12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="J12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="54"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+      <c r="K12" s="16"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="48"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="17">
+      <c r="C13" s="17">
         <v>10</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="D13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="21" t="s">
+      <c r="E13" s="23"/>
+      <c r="F13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="28">
+      <c r="G13" s="4"/>
+      <c r="H13" s="28">
         <v>24</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="I13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="56"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="29">
-        <v>29</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="54"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="20"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="50"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="43"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="29">
+      <c r="F14" s="20"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="29">
+        <v>29</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="48"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="43"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="29">
         <v>31</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="I15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="J15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="54"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="28">
+      <c r="K15" s="16"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="48"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="49"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="28">
         <v>33</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="I16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="56"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15" t="s">
+      <c r="K16" s="7"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="50"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="43"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="K17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="53" t="s">
+      <c r="L17" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="54"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="28">
+      <c r="M17" s="48"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="49"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="28">
         <v>36</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="I18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="56" t="s">
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="50" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="58" t="s">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="43"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="29">
+      <c r="H19" s="29">
         <v>12</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="I19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="54"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="27" t="s">
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="48"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="49"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="28">
+      <c r="H20" s="28">
         <v>16</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="I20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="56"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="59" t="s">
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="50"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="43"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="54"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="60"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
       <c r="E21" s="62"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="69"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="48"/>
+    </row>
+    <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C20:E21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="D21:F22"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/readme/WiringDiagram.xlsx
+++ b/readme/WiringDiagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\pi\src\VoltageCatcher\Readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447C0196-4C65-4F7E-9BD6-4E2A978A0BB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FB5395-52DA-4C19-B744-E489CB671CD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47925" yWindow="5295" windowWidth="22395" windowHeight="14145" xr2:uid="{5B5A548B-1E25-4052-909E-765B67E2A8C9}"/>
+    <workbookView xWindow="-31635" yWindow="2640" windowWidth="28095" windowHeight="17040" xr2:uid="{5B5A548B-1E25-4052-909E-765B67E2A8C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>Label</t>
   </si>
   <si>
-    <t>PhysPin</t>
-  </si>
-  <si>
     <t>Vdd</t>
   </si>
   <si>
@@ -114,12 +111,6 @@
     <t>+3.3v</t>
   </si>
   <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>Pot</t>
-  </si>
-  <si>
     <t>Dout</t>
   </si>
   <si>
@@ -195,14 +186,23 @@
     <t>Raspberry Pi</t>
   </si>
   <si>
-    <t>* Yes, OE should be connected to 3.3 v</t>
+    <t>10k pot</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>* Yes, OE should be connected to 3.3v and ground via the resistor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,25 +232,28 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -290,18 +293,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0099CC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -318,8 +309,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -337,20 +340,226 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -358,82 +567,329 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
       <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -442,7 +898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -453,182 +909,267 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -639,6 +1180,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD9D9D9"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FF0099CC"/>
     </mruColors>
@@ -951,523 +1493,514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E27D12-3647-4886-A042-51E674BD5053}">
-  <dimension ref="B1:M22"/>
+  <dimension ref="B1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="30"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="13" max="13" width="8" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="31" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="66" t="s">
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="64" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="39" t="s">
+      <c r="C3" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="67"/>
+      <c r="K3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="65"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="89">
         <v>14</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="29">
+      <c r="E4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="16">
         <v>6</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="48" t="s">
+      <c r="L4" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="53" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="25">
+      <c r="B5" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="91">
         <v>9</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="28">
+      <c r="F5" s="44"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="23">
         <v>6</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="50"/>
+      <c r="I5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="92">
+        <v>16</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="24">
+        <v>2</v>
+      </c>
+      <c r="I6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="44">
-        <v>16</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="29">
-        <v>2</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="48"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="55"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="25">
+      <c r="B7" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="91">
         <v>15</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>50</v>
+      <c r="D7" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="28">
+      <c r="F7" s="44"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="23">
         <v>2</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="50"/>
+      <c r="I7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="54"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="45"/>
-      <c r="E8" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="29">
+      <c r="E8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="24">
         <v>1</v>
       </c>
-      <c r="I8" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="15" t="s">
+      <c r="I8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="48"/>
+      <c r="J8" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="30"/>
+      <c r="M8" s="55"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="28">
+      <c r="B9" s="90"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="23">
         <v>1</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="50"/>
+      <c r="I9" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="34"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="54"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="94">
         <v>11</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="29">
+      <c r="D10" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="82"/>
+      <c r="F10" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="24">
         <v>19</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="48"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="55"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="94">
         <v>12</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="29">
+      <c r="D11" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="82"/>
+      <c r="F11" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="24">
         <v>21</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="48"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="94">
         <v>13</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="29">
+      <c r="D12" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="82"/>
+      <c r="F12" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="24">
         <v>23</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="48"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="55"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="93">
         <v>10</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="28">
+      <c r="D13" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="83"/>
+      <c r="F13" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="23">
         <v>24</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="50"/>
+      <c r="I13" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="34"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="54"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="43"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="29">
+      <c r="B14" s="88"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="31">
         <v>29</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="48"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="55"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="43"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="29">
+      <c r="B15" s="88"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="24">
         <v>31</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="48"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="55"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="28">
+      <c r="B16" s="88"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="80">
         <v>33</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="50"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="55"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="43"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15" t="s">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="90"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="47" t="s">
+      <c r="K17" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="54"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="90"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="23">
+        <v>36</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="34"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="75"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="88"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="24">
+        <v>12</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="35"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="55"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="90"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="23">
+        <v>16</v>
+      </c>
+      <c r="I20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="M17" s="48"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="54"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="28">
-        <v>36</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="43"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="29">
-        <v>12</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="48"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="28">
-        <v>16</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="50"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="43"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="62" t="s">
+    <row r="21" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="99"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="48"/>
-    </row>
-    <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="61"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D21:F22"/>
+  <mergeCells count="7">
+    <mergeCell ref="D21:F21"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="E10:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/readme/WiringDiagram.xlsx
+++ b/readme/WiringDiagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\pi\src\VoltageCatcher\Readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FB5395-52DA-4C19-B744-E489CB671CD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2C70FB-B4B7-452B-B037-B878B37D1B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31635" yWindow="2640" windowWidth="28095" windowHeight="17040" xr2:uid="{5B5A548B-1E25-4052-909E-765B67E2A8C9}"/>
+    <workbookView xWindow="-33525" yWindow="3945" windowWidth="19185" windowHeight="14130" xr2:uid="{5B5A548B-1E25-4052-909E-765B67E2A8C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -322,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -350,56 +350,120 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
       <top/>
       <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color theme="1"/>
       </top>
       <bottom style="thin">
@@ -408,11 +472,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
         <color theme="1"/>
       </top>
       <bottom style="thin">
@@ -422,10 +484,21 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right/>
-      <top style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
         <color theme="1"/>
       </top>
       <bottom/>
@@ -433,257 +506,23 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
         <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
       <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -798,21 +637,6 @@
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,11 +718,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -924,79 +863,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1005,172 +910,181 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1495,9 +1409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E27D12-3647-4886-A042-51E674BD5053}">
   <dimension ref="B1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1518,479 +1430,479 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="66" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="68" t="s">
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="64" t="s">
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="86" t="s">
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="65"/>
+      <c r="M3" s="88"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="89">
+      <c r="C4" s="58">
         <v>14</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="16">
+      <c r="F4" s="32"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="14">
         <v>6</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="73" t="s">
+      <c r="L4" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="M4" s="40" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="91">
+      <c r="C5" s="57">
         <v>9</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="23">
+      <c r="D5" s="29"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="13">
         <v>6</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="54"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="92">
+      <c r="C6" s="58">
         <v>16</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="24">
+      <c r="E6" s="10"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="14">
         <v>2</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="55"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="40"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="91">
+      <c r="C7" s="57">
         <v>15</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="23">
+      <c r="E7" s="9"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="13">
         <v>2</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="54"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="39"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="88"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="21" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="24">
+      <c r="G8" s="26"/>
+      <c r="H8" s="14">
         <v>1</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="55"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="40"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="90"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="44" t="s">
+      <c r="B9" s="56"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="23">
+      <c r="G9" s="25"/>
+      <c r="H9" s="13">
         <v>1</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="54"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="39"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="94">
+      <c r="C10" s="60">
         <v>11</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="48" t="s">
+      <c r="E10" s="74"/>
+      <c r="F10" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="24">
+      <c r="G10" s="26"/>
+      <c r="H10" s="14">
         <v>19</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="55"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="40"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="94">
+      <c r="C11" s="60">
         <v>12</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="82"/>
-      <c r="F11" s="48" t="s">
+      <c r="E11" s="74"/>
+      <c r="F11" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="24">
+      <c r="G11" s="26"/>
+      <c r="H11" s="14">
         <v>21</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="55"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="40"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="94">
+      <c r="C12" s="60">
         <v>13</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="82"/>
-      <c r="F12" s="48" t="s">
+      <c r="E12" s="74"/>
+      <c r="F12" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="24">
+      <c r="G12" s="26"/>
+      <c r="H12" s="14">
         <v>23</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="55"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="40"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="93">
+      <c r="C13" s="59">
         <v>10</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="50" t="s">
+      <c r="E13" s="75"/>
+      <c r="F13" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="23">
+      <c r="G13" s="25"/>
+      <c r="H13" s="13">
         <v>24</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="54"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="39"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="88"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="47"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="31">
+      <c r="F14" s="37"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="21">
         <v>29</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="35" t="s">
+      <c r="J14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="55"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="40"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="88"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="47"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="24">
+      <c r="F15" s="37"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="14">
         <v>31</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="55"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="40"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="88"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="47"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="80">
+      <c r="F16" s="37"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="53">
         <v>33</v>
       </c>
-      <c r="I16" s="79" t="s">
+      <c r="I16" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="76" t="s">
+      <c r="J16" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="77"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="55"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="40"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="90"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="49"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="34" t="s">
+      <c r="F17" s="38"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="29" t="s">
+      <c r="K17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="74" t="s">
+      <c r="L17" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="54"/>
+      <c r="M17" s="39"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="90"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="49"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="23">
+      <c r="F18" s="38"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="13">
         <v>36</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="I18" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="34"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="54" t="s">
+      <c r="M18" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="75"/>
+      <c r="O18" s="48"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="88"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="47"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="39" t="s">
+      <c r="F19" s="37"/>
+      <c r="G19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="14">
         <v>12</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="I19" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="35"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="55"/>
+      <c r="M19" s="40"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="90"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="49"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="40" t="s">
+      <c r="F20" s="38"/>
+      <c r="G20" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="13">
         <v>16</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="34"/>
+      <c r="J20" s="23"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="54"/>
+      <c r="M20" s="39"/>
     </row>
-    <row r="21" spans="2:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="70" t="s">
+    <row r="21" spans="2:15" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="61"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="7">
